--- a/URS/DbLayouts/L6-共同作業/CdStock.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdStock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2F405-687C-445F-85AF-E2F4DAD612BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B372F678-C4AB-42BA-A2C5-643C3C7E80C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -213,15 +213,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Curreny</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>幣別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.Currency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票公司名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockCompanyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前日收盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YdClosePrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthlyAvg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreeMonthAvg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個月平均價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三個月平均價</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -804,7 +844,7 @@
     <col min="3" max="3" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="3"/>
   </cols>
   <sheetData>
@@ -930,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
@@ -951,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -961,39 +1001,39 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E11" s="18">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1001,97 +1041,143 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E13" s="18">
-        <v>6</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="18">
         <v>16</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E15" s="18">
-        <v>6</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="18">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="18">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="A19" s="18">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="18">
+        <v>6</v>
+      </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
@@ -1164,6 +1250,42 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
